--- a/Friedman_SSIM.xlsx
+++ b/Friedman_SSIM.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FernandoJoseRamirezS\Documents\GitHub\Bioinspirado\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ferna\Documentos\GitHub\Bioinspirado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{709F0905-2507-4222-8E75-F264C99CD6C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{515EDCA5-45F2-4C88-9ACB-EEADE13C6AB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="4" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
-    <sheet name="Otsu" sheetId="3" r:id="rId3"/>
+    <sheet name="Otsu" sheetId="5" r:id="rId3"/>
     <sheet name="Kapur" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
@@ -23,13 +23,13 @@
   </definedNames>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="34">
   <si>
     <t>Funcion_Objetivo</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t xml:space="preserve"> GWO</t>
+  </si>
+  <si>
+    <t>img</t>
   </si>
 </sst>
 </file>
@@ -240,6 +243,10 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -249,16 +256,368 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="63">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -3621,7 +3980,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AB37E96E-3A28-419E-B7FF-A2C30F6AFF56}" name="TablaDinámica1" cacheId="4" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AB37E96E-3A28-419E-B7FF-A2C30F6AFF56}" name="TablaDinámica1" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
   <location ref="A3:E12" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -3762,7 +4121,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9ABB8494-64F5-4185-BE74-7F491B9F5939}" name="Tabla1" displayName="Tabla1" ref="A1:N121" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9ABB8494-64F5-4185-BE74-7F491B9F5939}" name="Tabla1" displayName="Tabla1" ref="A1:N121" totalsRowShown="0" headerRowDxfId="62">
   <autoFilter ref="A1:N121" xr:uid="{9ABB8494-64F5-4185-BE74-7F491B9F5939}">
     <filterColumn colId="1">
       <filters>
@@ -3771,7 +4130,7 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{9591BBC3-4294-43F2-A072-1C4738C8F708}" name="Columna1" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{9591BBC3-4294-43F2-A072-1C4738C8F708}" name="Columna1" dataDxfId="61"/>
     <tableColumn id="2" xr3:uid="{38F0F967-9BE9-499F-9D87-FF3CD591004B}" name="Funcion_Objetivo"/>
     <tableColumn id="3" xr3:uid="{322CA207-98F5-4964-B6BC-8FCFB43391F1}" name="Imagen"/>
     <tableColumn id="4" xr3:uid="{27800A3F-590D-4133-A833-712657C441B9}" name="Dimension"/>
@@ -4077,36 +4436,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC1C4FF4-2858-4FD8-A91B-4A6042A2549B}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.40625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.86328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.40625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="B3" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A4" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B4">
@@ -4122,139 +4481,139 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5">
         <v>5.6</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5">
         <v>5.55</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5">
         <v>5.7</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5">
         <v>5.6166666666666663</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6">
         <v>3.65</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6">
         <v>3.2</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6">
         <v>3.4</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6">
         <v>3.4166666666666665</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7">
         <v>3.95</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7">
         <v>3.25</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7">
         <v>3.2</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7">
         <v>3.4666666666666668</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8">
         <v>5.85</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8">
         <v>6.1</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8">
         <v>5.85</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8">
         <v>5.9333333333333336</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9">
         <v>1.85</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9">
         <v>2.1</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9">
         <v>1.95</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9">
         <v>1.9666666666666666</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10">
         <v>2.95</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10">
         <v>3.15</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10">
         <v>3.4</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10">
         <v>3.1666666666666665</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A11" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11">
         <v>4.6500000000000004</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11">
         <v>5.0999999999999996</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11">
         <v>4.9000000000000004</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11">
         <v>4.8833333333333337</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A12" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12">
         <v>7.5</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12">
         <v>7.55</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12">
         <v>7.6</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12">
         <v>7.55</v>
       </c>
     </row>
@@ -4268,29 +4627,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N121"/>
   <sheetViews>
-    <sheetView topLeftCell="A62" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="11.140625" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.1328125" customWidth="1"/>
+    <col min="2" max="2" width="17.7265625" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.86328125" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" customWidth="1"/>
+    <col min="8" max="8" width="11.26953125" customWidth="1"/>
+    <col min="9" max="9" width="11.40625" customWidth="1"/>
+    <col min="10" max="10" width="10.7265625" customWidth="1"/>
+    <col min="11" max="11" width="12.40625" customWidth="1"/>
     <col min="12" max="12" width="11" customWidth="1"/>
-    <col min="13" max="13" width="11.5703125" customWidth="1"/>
+    <col min="13" max="13" width="11.54296875" customWidth="1"/>
     <col min="14" max="14" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -4334,7 +4693,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -4378,7 +4737,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -4422,7 +4781,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -4466,7 +4825,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -4510,7 +4869,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -4554,7 +4913,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -4598,7 +4957,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -4642,7 +5001,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -4686,7 +5045,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -4730,7 +5089,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -4774,7 +5133,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -4818,7 +5177,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -4862,7 +5221,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -4906,7 +5265,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -4950,7 +5309,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -4994,7 +5353,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -5038,7 +5397,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -5082,7 +5441,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -5126,7 +5485,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -5170,7 +5529,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -5214,7 +5573,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -5258,7 +5617,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -5302,7 +5661,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -5346,7 +5705,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -5390,7 +5749,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -5434,7 +5793,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -5478,7 +5837,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -5522,7 +5881,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -5566,7 +5925,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -5610,7 +5969,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -5654,7 +6013,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -5698,7 +6057,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -5742,7 +6101,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -5786,7 +6145,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -5830,7 +6189,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -5874,7 +6233,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -5918,7 +6277,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -5962,7 +6321,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -6006,7 +6365,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -6050,7 +6409,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -6094,7 +6453,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -6138,7 +6497,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -6182,7 +6541,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -6226,7 +6585,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -6270,7 +6629,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -6314,7 +6673,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -6358,7 +6717,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -6402,7 +6761,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -6446,7 +6805,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -6490,7 +6849,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -6534,7 +6893,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -6578,7 +6937,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -6622,7 +6981,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -6666,7 +7025,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -6710,7 +7069,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -6754,7 +7113,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -6798,7 +7157,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -6842,7 +7201,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -6886,7 +7245,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -6930,7 +7289,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -6974,7 +7333,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -7018,7 +7377,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -7062,7 +7421,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -7106,7 +7465,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -7150,7 +7509,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -7194,7 +7553,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -7238,7 +7597,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -7282,7 +7641,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -7326,7 +7685,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -7370,7 +7729,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -7414,7 +7773,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -7458,7 +7817,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -7502,7 +7861,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -7546,7 +7905,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -7590,7 +7949,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -7634,7 +7993,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -7678,7 +8037,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -7722,7 +8081,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -7766,7 +8125,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -7810,7 +8169,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -7854,7 +8213,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -7898,7 +8257,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -7942,7 +8301,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -7986,7 +8345,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -8030,7 +8389,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -8074,7 +8433,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -8118,7 +8477,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -8162,7 +8521,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -8206,7 +8565,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -8250,7 +8609,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -8294,7 +8653,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -8338,7 +8697,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -8382,7 +8741,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -8426,7 +8785,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -8470,7 +8829,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -8514,7 +8873,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -8558,7 +8917,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -8602,7 +8961,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -8646,7 +9005,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -8690,7 +9049,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -8734,7 +9093,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -8778,7 +9137,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -8822,7 +9181,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -8866,7 +9225,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -8910,7 +9269,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -8954,7 +9313,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -8998,7 +9357,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -9042,7 +9401,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -9086,7 +9445,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -9130,7 +9489,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -9174,7 +9533,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -9218,7 +9577,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -9262,7 +9621,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -9306,7 +9665,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -9350,7 +9709,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -9394,7 +9753,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -9438,7 +9797,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -9482,7 +9841,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -9526,7 +9885,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -9570,7 +9929,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -9623,72 +9982,72 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07A1CDDE-AB89-42A9-AB7C-AAB89C49A30E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E88CB86-5D74-46D0-BD30-E19ABA027CBF}">
   <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:L50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="3" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="5"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A3">
         <v>1</v>
       </c>
@@ -9726,7 +10085,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A4">
         <v>1</v>
       </c>
@@ -9764,7 +10123,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A5">
         <v>1</v>
       </c>
@@ -9802,7 +10161,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A6">
         <v>2</v>
       </c>
@@ -9840,7 +10199,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A7">
         <v>2</v>
       </c>
@@ -9878,7 +10237,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A8">
         <v>2</v>
       </c>
@@ -9916,7 +10275,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A9">
         <v>3</v>
       </c>
@@ -9954,7 +10313,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A10">
         <v>3</v>
       </c>
@@ -9992,7 +10351,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A11">
         <v>3</v>
       </c>
@@ -10030,7 +10389,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A12">
         <v>4</v>
       </c>
@@ -10068,7 +10427,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A13">
         <v>4</v>
       </c>
@@ -10106,7 +10465,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A14">
         <v>4</v>
       </c>
@@ -10144,7 +10503,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A15">
         <v>5</v>
       </c>
@@ -10182,7 +10541,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A16">
         <v>5</v>
       </c>
@@ -10220,7 +10579,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A17">
         <v>5</v>
       </c>
@@ -10258,7 +10617,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A18">
         <v>6</v>
       </c>
@@ -10296,7 +10655,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A19">
         <v>6</v>
       </c>
@@ -10334,7 +10693,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A20">
         <v>6</v>
       </c>
@@ -10372,7 +10731,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A21">
         <v>7</v>
       </c>
@@ -10410,7 +10769,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A22">
         <v>7</v>
       </c>
@@ -10448,7 +10807,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A23">
         <v>7</v>
       </c>
@@ -10486,7 +10845,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A24">
         <v>8</v>
       </c>
@@ -10524,7 +10883,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A25">
         <v>8</v>
       </c>
@@ -10562,7 +10921,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A26">
         <v>8</v>
       </c>
@@ -10600,7 +10959,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A27">
         <v>9</v>
       </c>
@@ -10638,7 +10997,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A28">
         <v>9</v>
       </c>
@@ -10676,7 +11035,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A29">
         <v>9</v>
       </c>
@@ -10714,7 +11073,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A30">
         <v>10</v>
       </c>
@@ -10752,7 +11111,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A31">
         <v>10</v>
       </c>
@@ -10790,7 +11149,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A32">
         <v>10</v>
       </c>
@@ -10828,7 +11187,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A33">
         <v>11</v>
       </c>
@@ -10866,7 +11225,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A34">
         <v>11</v>
       </c>
@@ -10904,7 +11263,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A35">
         <v>11</v>
       </c>
@@ -10942,7 +11301,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A36">
         <v>12</v>
       </c>
@@ -10980,7 +11339,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A37">
         <v>12</v>
       </c>
@@ -11018,7 +11377,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A38">
         <v>12</v>
       </c>
@@ -11056,7 +11415,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A39">
         <v>13</v>
       </c>
@@ -11094,7 +11453,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A40">
         <v>13</v>
       </c>
@@ -11132,7 +11491,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A41">
         <v>13</v>
       </c>
@@ -11170,7 +11529,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A42">
         <v>14</v>
       </c>
@@ -11208,7 +11567,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A43">
         <v>14</v>
       </c>
@@ -11246,7 +11605,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A44">
         <v>14</v>
       </c>
@@ -11284,7 +11643,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A45">
         <v>15</v>
       </c>
@@ -11322,7 +11681,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A46">
         <v>15</v>
       </c>
@@ -11360,7 +11719,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A47">
         <v>15</v>
       </c>
@@ -11398,7 +11757,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A48">
         <v>16</v>
       </c>
@@ -11436,7 +11795,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A49">
         <v>16</v>
       </c>
@@ -11474,7 +11833,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A50">
         <v>16</v>
       </c>
@@ -11512,7 +11871,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A51">
         <v>17</v>
       </c>
@@ -11550,7 +11909,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A52">
         <v>17</v>
       </c>
@@ -11588,7 +11947,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A53">
         <v>17</v>
       </c>
@@ -11626,7 +11985,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A54">
         <v>18</v>
       </c>
@@ -11664,7 +12023,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A55">
         <v>18</v>
       </c>
@@ -11702,7 +12061,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A56">
         <v>18</v>
       </c>
@@ -11740,7 +12099,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A57">
         <v>19</v>
       </c>
@@ -11778,7 +12137,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A58">
         <v>19</v>
       </c>
@@ -11816,7 +12175,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A59">
         <v>19</v>
       </c>
@@ -11854,7 +12213,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A60">
         <v>20</v>
       </c>
@@ -11892,7 +12251,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A61">
         <v>20</v>
       </c>
@@ -11930,7 +12289,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A62">
         <v>20</v>
       </c>
@@ -11973,8 +12332,303 @@
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:L1"/>
   </mergeCells>
-  <conditionalFormatting sqref="E3:L62">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+  <conditionalFormatting sqref="E3:L3">
+    <cfRule type="cellIs" dxfId="59" priority="60" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4:L4">
+    <cfRule type="cellIs" dxfId="58" priority="59" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5:L5">
+    <cfRule type="cellIs" dxfId="57" priority="58" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:L6">
+    <cfRule type="cellIs" dxfId="56" priority="57" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7:L7">
+    <cfRule type="cellIs" dxfId="55" priority="56" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8:L8">
+    <cfRule type="cellIs" dxfId="54" priority="55" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9:L9">
+    <cfRule type="cellIs" dxfId="53" priority="54" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10:L10">
+    <cfRule type="cellIs" dxfId="52" priority="53" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11:L11">
+    <cfRule type="cellIs" dxfId="51" priority="52" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12:L12">
+    <cfRule type="cellIs" dxfId="50" priority="51" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:L13">
+    <cfRule type="cellIs" dxfId="49" priority="50" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:L14">
+    <cfRule type="cellIs" dxfId="48" priority="49" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15:L15">
+    <cfRule type="cellIs" dxfId="47" priority="48" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16:L16">
+    <cfRule type="cellIs" dxfId="46" priority="47" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17:L17">
+    <cfRule type="cellIs" dxfId="45" priority="46" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18:L18">
+    <cfRule type="cellIs" dxfId="44" priority="45" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19:L19">
+    <cfRule type="cellIs" dxfId="43" priority="44" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20:L20">
+    <cfRule type="cellIs" dxfId="42" priority="43" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21:L21">
+    <cfRule type="cellIs" dxfId="41" priority="42" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22:L22">
+    <cfRule type="cellIs" dxfId="40" priority="41" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23:L23">
+    <cfRule type="cellIs" dxfId="39" priority="40" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24:L24">
+    <cfRule type="cellIs" dxfId="38" priority="39" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25:L25">
+    <cfRule type="cellIs" dxfId="37" priority="38" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26:L26">
+    <cfRule type="cellIs" dxfId="36" priority="37" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27:L27">
+    <cfRule type="cellIs" dxfId="35" priority="36" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28:L28">
+    <cfRule type="cellIs" dxfId="34" priority="35" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29:L29">
+    <cfRule type="cellIs" dxfId="33" priority="34" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30:L30">
+    <cfRule type="cellIs" dxfId="32" priority="33" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31:L31">
+    <cfRule type="cellIs" dxfId="31" priority="32" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32:L32">
+    <cfRule type="cellIs" dxfId="30" priority="31" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33:L33">
+    <cfRule type="cellIs" dxfId="29" priority="30" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34:L34">
+    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35:L35">
+    <cfRule type="cellIs" dxfId="27" priority="28" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36:L36">
+    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37:L37">
+    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38:L38">
+    <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39:L39">
+    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E40:L40">
+    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E41:L41">
+    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42:L42">
+    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E43:L43">
+    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44:L44">
+    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45:L45">
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46:L46">
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47:L47">
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48:L48">
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49:L49">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E50:L50">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51:L51">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52:L52">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53:L53">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54:L54">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55:L55">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56:L56">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57:L57">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58:L58">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59:L59">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60:L60">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61:L61">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62:L62">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11990,27 +12644,27 @@
       <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="3" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="5"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="7"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -12048,7 +12702,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A3">
         <v>1</v>
       </c>
@@ -12086,7 +12740,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A4">
         <v>1</v>
       </c>
@@ -12124,7 +12778,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A5">
         <v>1</v>
       </c>
@@ -12162,7 +12816,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A6">
         <v>2</v>
       </c>
@@ -12200,7 +12854,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A7">
         <v>2</v>
       </c>
@@ -12238,7 +12892,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A8">
         <v>2</v>
       </c>
@@ -12276,7 +12930,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A9">
         <v>3</v>
       </c>
@@ -12314,7 +12968,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A10">
         <v>3</v>
       </c>
@@ -12352,7 +13006,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A11">
         <v>3</v>
       </c>
@@ -12390,7 +13044,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A12">
         <v>4</v>
       </c>
@@ -12428,7 +13082,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A13">
         <v>4</v>
       </c>
@@ -12466,7 +13120,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A14">
         <v>4</v>
       </c>
@@ -12504,7 +13158,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A15">
         <v>5</v>
       </c>
@@ -12542,7 +13196,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A16">
         <v>5</v>
       </c>
@@ -12580,7 +13234,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A17">
         <v>5</v>
       </c>
@@ -12618,7 +13272,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A18">
         <v>6</v>
       </c>
@@ -12656,7 +13310,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A19">
         <v>6</v>
       </c>
@@ -12694,7 +13348,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A20">
         <v>6</v>
       </c>
@@ -12732,7 +13386,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A21">
         <v>7</v>
       </c>
@@ -12770,7 +13424,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A22">
         <v>7</v>
       </c>
@@ -12808,7 +13462,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A23">
         <v>7</v>
       </c>
@@ -12846,7 +13500,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A24">
         <v>8</v>
       </c>
@@ -12884,7 +13538,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A25">
         <v>8</v>
       </c>
@@ -12922,7 +13576,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A26">
         <v>8</v>
       </c>
@@ -12960,7 +13614,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A27">
         <v>9</v>
       </c>
@@ -12998,7 +13652,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A28">
         <v>9</v>
       </c>
@@ -13036,7 +13690,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A29">
         <v>9</v>
       </c>
@@ -13074,7 +13728,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A30">
         <v>10</v>
       </c>
@@ -13112,7 +13766,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A31">
         <v>10</v>
       </c>
@@ -13150,7 +13804,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A32">
         <v>10</v>
       </c>
@@ -13188,7 +13842,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A33">
         <v>11</v>
       </c>
@@ -13226,7 +13880,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A34">
         <v>11</v>
       </c>
@@ -13264,7 +13918,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A35">
         <v>11</v>
       </c>
@@ -13302,7 +13956,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A36">
         <v>12</v>
       </c>
@@ -13340,7 +13994,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A37">
         <v>12</v>
       </c>
@@ -13378,7 +14032,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A38">
         <v>12</v>
       </c>
@@ -13416,7 +14070,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A39">
         <v>13</v>
       </c>
@@ -13454,7 +14108,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A40">
         <v>13</v>
       </c>
@@ -13492,7 +14146,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A41">
         <v>13</v>
       </c>
@@ -13530,7 +14184,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A42">
         <v>14</v>
       </c>
@@ -13568,7 +14222,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A43">
         <v>14</v>
       </c>
@@ -13606,7 +14260,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A44">
         <v>14</v>
       </c>
@@ -13644,7 +14298,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A45">
         <v>15</v>
       </c>
@@ -13682,7 +14336,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A46">
         <v>15</v>
       </c>
@@ -13720,7 +14374,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A47">
         <v>15</v>
       </c>
@@ -13758,7 +14412,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A48">
         <v>16</v>
       </c>
@@ -13796,7 +14450,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A49">
         <v>16</v>
       </c>
@@ -13834,7 +14488,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A50">
         <v>16</v>
       </c>
@@ -13872,7 +14526,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A51">
         <v>17</v>
       </c>
@@ -13910,7 +14564,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A52">
         <v>17</v>
       </c>
@@ -13948,7 +14602,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A53">
         <v>17</v>
       </c>
@@ -13986,7 +14640,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A54">
         <v>18</v>
       </c>
@@ -14024,7 +14678,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A55">
         <v>18</v>
       </c>
@@ -14062,7 +14716,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A56">
         <v>18</v>
       </c>
@@ -14100,7 +14754,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A57">
         <v>19</v>
       </c>
@@ -14138,7 +14792,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A58">
         <v>19</v>
       </c>
@@ -14176,7 +14830,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A59">
         <v>19</v>
       </c>
@@ -14214,7 +14868,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A60">
         <v>20</v>
       </c>
@@ -14252,7 +14906,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A61">
         <v>20</v>
       </c>
@@ -14290,7 +14944,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A62">
         <v>20</v>
       </c>
@@ -14339,7 +14993,7 @@
     <mergeCell ref="E1:L1"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:L62">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Friedman_SSIM.xlsx
+++ b/Friedman_SSIM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ferna\Documentos\GitHub\Bioinspirado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{515EDCA5-45F2-4C88-9ACB-EEADE13C6AB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C802A268-865F-4425-A569-F445C27BA2CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57330" yWindow="-270" windowWidth="29340" windowHeight="16740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="4" r:id="rId1"/>
@@ -237,7 +237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -246,6 +246,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -256,368 +259,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="63">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <b/>
@@ -772,8 +419,9 @@
               <a:endParaRPr lang="es-CL"/>
             </a:p>
           </c:txPr>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -828,8 +476,9 @@
               <a:endParaRPr lang="es-CL"/>
             </a:p>
           </c:txPr>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -884,8 +533,9 @@
               <a:endParaRPr lang="es-CL"/>
             </a:p>
           </c:txPr>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -926,6 +576,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-CL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Hoja1!$A$5:$A$12</c:f>
@@ -1021,6 +729,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-CL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Hoja1!$A$5:$A$12</c:f>
@@ -1116,6 +882,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-CL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Hoja1!$A$5:$A$12</c:f>
@@ -1188,8 +1012,9 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -1307,6 +1132,45 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1953,16 +1817,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1019175</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>276223</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:rowOff>96836</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3980,7 +3844,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AB37E96E-3A28-419E-B7FF-A2C30F6AFF56}" name="TablaDinámica1" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AB37E96E-3A28-419E-B7FF-A2C30F6AFF56}" name="TablaDinámica1" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
   <location ref="A3:E12" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -4121,7 +3985,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9ABB8494-64F5-4185-BE74-7F491B9F5939}" name="Tabla1" displayName="Tabla1" ref="A1:N121" totalsRowShown="0" headerRowDxfId="62">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9ABB8494-64F5-4185-BE74-7F491B9F5939}" name="Tabla1" displayName="Tabla1" ref="A1:N121" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="A1:N121" xr:uid="{9ABB8494-64F5-4185-BE74-7F491B9F5939}">
     <filterColumn colId="1">
       <filters>
@@ -4130,7 +3994,7 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{9591BBC3-4294-43F2-A072-1C4738C8F708}" name="Columna1" dataDxfId="61"/>
+    <tableColumn id="1" xr3:uid="{9591BBC3-4294-43F2-A072-1C4738C8F708}" name="Columna1" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{38F0F967-9BE9-499F-9D87-FF3CD591004B}" name="Funcion_Objetivo"/>
     <tableColumn id="3" xr3:uid="{322CA207-98F5-4964-B6BC-8FCFB43391F1}" name="Imagen"/>
     <tableColumn id="4" xr3:uid="{27800A3F-590D-4133-A833-712657C441B9}" name="Dimension"/>
@@ -4436,16 +4300,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC1C4FF4-2858-4FD8-A91B-4A6042A2549B}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="16.86328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.40625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="4.6796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.90625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.86328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.40625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.86328125" bestFit="1" customWidth="1"/>
@@ -4485,16 +4349,16 @@
       <c r="A5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="9">
         <v>5.6</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="9">
         <v>5.55</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="9">
         <v>5.7</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="9">
         <v>5.6166666666666663</v>
       </c>
     </row>
@@ -4502,16 +4366,16 @@
       <c r="A6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="9">
         <v>3.65</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="9">
         <v>3.2</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="9">
         <v>3.4</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="9">
         <v>3.4166666666666665</v>
       </c>
     </row>
@@ -4519,16 +4383,16 @@
       <c r="A7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="9">
         <v>3.95</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="9">
         <v>3.25</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="9">
         <v>3.2</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="9">
         <v>3.4666666666666668</v>
       </c>
     </row>
@@ -4536,16 +4400,16 @@
       <c r="A8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="9">
         <v>5.85</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="9">
         <v>6.1</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="9">
         <v>5.85</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="9">
         <v>5.9333333333333336</v>
       </c>
     </row>
@@ -4553,16 +4417,16 @@
       <c r="A9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="9">
         <v>1.85</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="9">
         <v>2.1</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="9">
         <v>1.95</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="9">
         <v>1.9666666666666666</v>
       </c>
     </row>
@@ -4570,16 +4434,16 @@
       <c r="A10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="9">
         <v>2.95</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="9">
         <v>3.15</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="9">
         <v>3.4</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="9">
         <v>3.1666666666666665</v>
       </c>
     </row>
@@ -4587,16 +4451,16 @@
       <c r="A11" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="9">
         <v>4.6500000000000004</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="9">
         <v>5.0999999999999996</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="9">
         <v>4.9000000000000004</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="9">
         <v>4.8833333333333337</v>
       </c>
     </row>
@@ -4604,16 +4468,16 @@
       <c r="A12" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="9">
         <v>7.5</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="9">
         <v>7.55</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="9">
         <v>7.6</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="9">
         <v>7.55</v>
       </c>
     </row>
@@ -9985,29 +9849,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E88CB86-5D74-46D0-BD30-E19ABA027CBF}">
   <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
@@ -12332,303 +12196,8 @@
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:L1"/>
   </mergeCells>
-  <conditionalFormatting sqref="E3:L3">
-    <cfRule type="cellIs" dxfId="59" priority="60" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4:L4">
-    <cfRule type="cellIs" dxfId="58" priority="59" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E5:L5">
-    <cfRule type="cellIs" dxfId="57" priority="58" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:L6">
-    <cfRule type="cellIs" dxfId="56" priority="57" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7:L7">
-    <cfRule type="cellIs" dxfId="55" priority="56" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8:L8">
-    <cfRule type="cellIs" dxfId="54" priority="55" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9:L9">
-    <cfRule type="cellIs" dxfId="53" priority="54" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10:L10">
-    <cfRule type="cellIs" dxfId="52" priority="53" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E11:L11">
-    <cfRule type="cellIs" dxfId="51" priority="52" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12:L12">
-    <cfRule type="cellIs" dxfId="50" priority="51" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:L13">
-    <cfRule type="cellIs" dxfId="49" priority="50" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E14:L14">
-    <cfRule type="cellIs" dxfId="48" priority="49" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E15:L15">
-    <cfRule type="cellIs" dxfId="47" priority="48" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E16:L16">
-    <cfRule type="cellIs" dxfId="46" priority="47" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E17:L17">
-    <cfRule type="cellIs" dxfId="45" priority="46" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E18:L18">
-    <cfRule type="cellIs" dxfId="44" priority="45" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E19:L19">
-    <cfRule type="cellIs" dxfId="43" priority="44" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20:L20">
-    <cfRule type="cellIs" dxfId="42" priority="43" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E21:L21">
-    <cfRule type="cellIs" dxfId="41" priority="42" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E22:L22">
-    <cfRule type="cellIs" dxfId="40" priority="41" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E23:L23">
-    <cfRule type="cellIs" dxfId="39" priority="40" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E24:L24">
-    <cfRule type="cellIs" dxfId="38" priority="39" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E25:L25">
-    <cfRule type="cellIs" dxfId="37" priority="38" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26:L26">
-    <cfRule type="cellIs" dxfId="36" priority="37" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E27:L27">
-    <cfRule type="cellIs" dxfId="35" priority="36" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28:L28">
-    <cfRule type="cellIs" dxfId="34" priority="35" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29:L29">
-    <cfRule type="cellIs" dxfId="33" priority="34" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30:L30">
-    <cfRule type="cellIs" dxfId="32" priority="33" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E31:L31">
-    <cfRule type="cellIs" dxfId="31" priority="32" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32:L32">
-    <cfRule type="cellIs" dxfId="30" priority="31" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E33:L33">
-    <cfRule type="cellIs" dxfId="29" priority="30" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34:L34">
-    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35:L35">
-    <cfRule type="cellIs" dxfId="27" priority="28" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E36:L36">
-    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E37:L37">
-    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E38:L38">
-    <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39:L39">
-    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E40:L40">
-    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E41:L41">
-    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E42:L42">
-    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E43:L43">
-    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E44:L44">
-    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45:L45">
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46:L46">
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47:L47">
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48:L48">
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49:L49">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E50:L50">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51:L51">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52:L52">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53:L53">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54:L54">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55:L55">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56:L56">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57:L57">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58:L58">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59:L59">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60:L60">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E61:L61">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E62:L62">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="E3:L62">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12647,22 +12216,22 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="5" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="8"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A2" s="2" t="s">
@@ -14993,7 +14562,7 @@
     <mergeCell ref="E1:L1"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:L62">
-    <cfRule type="cellIs" dxfId="60" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
